--- a/002/dao/xiaotu/gaozhong_yingyu/002.xlsx
+++ b/002/dao/xiaotu/gaozhong_yingyu/002.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangpeng/Documents/test/test6/002/dao/xiaotu/gaozhong_yingyu/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4120" yWindow="4000" windowWidth="33600" windowHeight="10780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1593,11 +1606,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1610,21 +1623,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1638,21 +1651,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1660,7 +1673,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1668,7 +1681,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1697,27 +1710,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,51 +1738,51 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1777,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1802,9 +1815,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1845,9 +1855,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1862,12 +1869,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1893,21 +1894,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2022,12 +2014,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2057,12 +2049,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2266,138 +2258,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR134"/>
+  <dimension ref="A1:AR99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ1" sqref="AJ1:AM1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="9" style="40"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="35"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="9" style="40"/>
+    <col min="14" max="14" width="8.83203125" style="35"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="40" customWidth="1"/>
-    <col min="19" max="19" width="10.875" customWidth="1"/>
-    <col min="20" max="20" width="9.75" customWidth="1"/>
-    <col min="22" max="22" width="9" style="40"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="12.625" customWidth="1"/>
-    <col min="25" max="25" width="9.75" customWidth="1"/>
-    <col min="26" max="26" width="9.75" style="40" customWidth="1"/>
-    <col min="27" max="27" width="17.125" customWidth="1"/>
-    <col min="28" max="28" width="10.875" customWidth="1"/>
-    <col min="30" max="30" width="12.75" style="40" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.375" customWidth="1"/>
-    <col min="32" max="32" width="11.375" customWidth="1"/>
-    <col min="34" max="34" width="9" style="40"/>
-    <col min="35" max="35" width="15.875" customWidth="1"/>
-    <col min="36" max="36" width="11.75" customWidth="1"/>
-    <col min="38" max="38" width="9" style="40"/>
-    <col min="39" max="39" width="16.375" customWidth="1"/>
-    <col min="40" max="40" width="9.75" customWidth="1"/>
-    <col min="42" max="42" width="9" style="40"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="35" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="35"/>
+    <col min="23" max="23" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="35" customWidth="1"/>
+    <col min="27" max="27" width="17.1640625" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" customWidth="1"/>
+    <col min="32" max="32" width="11.33203125" customWidth="1"/>
+    <col min="34" max="34" width="8.83203125" style="35"/>
+    <col min="35" max="35" width="15.83203125" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" customWidth="1"/>
+    <col min="38" max="38" width="8.83203125" style="35"/>
+    <col min="39" max="39" width="16.33203125" customWidth="1"/>
+    <col min="40" max="40" width="9.6640625" customWidth="1"/>
+    <col min="42" max="42" width="8.83203125" style="35"/>
     <col min="43" max="43" width="14" customWidth="1"/>
+    <col min="44" max="44" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="29.25" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:44" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="51" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="48" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="48" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="61" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="48" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="48" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="48" t="s">
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="46" t="s">
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="85.5" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="56"/>
+    <row r="2" spans="1:44" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="34" t="s">
         <v>350</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2406,10 +2399,10 @@
       <c r="H2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="36" t="s">
         <v>352</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -2421,109 +2414,109 @@
       <c r="M2" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="37" t="s">
         <v>352</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="X2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AB2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AD2" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AE2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AF2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AG2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AH2" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="28" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AL2" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AM2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="28" t="s">
+      <c r="AN2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="AP2" s="42" t="s">
+      <c r="AP2" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="AQ2" s="27" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="47"/>
+      <c r="AR2" s="40"/>
     </row>
-    <row r="3" spans="1:44" ht="14.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>390696</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
@@ -2533,8 +2526,8 @@
         <f>IF(I3="",0,I3/100*100)</f>
         <v>2.5</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2">
@@ -2544,22 +2537,22 @@
         <f>IF(I3="",0,I3/100*100)</f>
         <v>2.5</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <v>7.5</v>
       </c>
       <c r="N3" s="2">
         <f>IF(M3="",0,M3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="17" t="s">
+      <c r="O3" s="23"/>
+      <c r="P3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="17">
         <v>7.5</v>
       </c>
       <c r="R3" s="2">
@@ -2567,10 +2560,10 @@
         <v>5</v>
       </c>
       <c r="S3" s="3"/>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="17">
         <v>7.5</v>
       </c>
       <c r="V3" s="2">
@@ -2578,10 +2571,10 @@
         <v>5</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="17">
         <v>7.5</v>
       </c>
       <c r="Z3" s="2">
@@ -2589,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="2">
@@ -2599,8 +2592,8 @@
         <f>IF(AG3="",0,AG3/100*100)</f>
         <v>5</v>
       </c>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="17" t="s">
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AG3" s="2">
@@ -2610,8 +2603,8 @@
         <f>IF(AG3="",0,AG3/100*100)</f>
         <v>5</v>
       </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="17" t="s">
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AK3" s="2">
@@ -2622,10 +2615,10 @@
         <v>5</v>
       </c>
       <c r="AM3" s="3"/>
-      <c r="AN3" s="17" t="s">
+      <c r="AN3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="18">
+      <c r="AO3" s="17">
         <v>7.5</v>
       </c>
       <c r="AP3" s="2">
@@ -2633,33 +2626,33 @@
         <v>5</v>
       </c>
       <c r="AQ3" s="1"/>
-      <c r="AR3" s="45">
+      <c r="AR3" s="38">
         <f>(AP3+AL3+AH3+AD3+Z3+V3+R3+N3+J3+F3)/10</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="14.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>390698</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="33">
         <v>15</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F67" si="0">IF(I4="",0,I4/100*100)</f>
         <v>7.5</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="2">
@@ -2669,22 +2662,22 @@
         <f t="shared" ref="J4:J67" si="1">IF(I4="",0,I4/100*100)</f>
         <v>7.5</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <v>22.5</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ref="N4:N67" si="2">IF(M4="",0,M4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="18" t="s">
+      <c r="O4" s="23"/>
+      <c r="P4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <v>22.5</v>
       </c>
       <c r="R4" s="2">
@@ -2692,10 +2685,10 @@
         <v>15</v>
       </c>
       <c r="S4" s="3"/>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="17">
         <v>22.5</v>
       </c>
       <c r="V4" s="2">
@@ -2703,10 +2696,10 @@
         <v>15</v>
       </c>
       <c r="W4" s="3"/>
-      <c r="X4" s="18" t="s">
+      <c r="X4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="17">
         <v>22.5</v>
       </c>
       <c r="Z4" s="2">
@@ -2714,7 +2707,7 @@
         <v>15</v>
       </c>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="18" t="s">
+      <c r="AB4" s="17" t="s">
         <v>141</v>
       </c>
       <c r="AC4" s="2">
@@ -2724,8 +2717,8 @@
         <f t="shared" ref="AD4:AD67" si="6">IF(AC4="",0,AC4/120*100)</f>
         <v>12.5</v>
       </c>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="18" t="s">
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="17" t="s">
         <v>310</v>
       </c>
       <c r="AG4" s="2">
@@ -2735,8 +2728,8 @@
         <f t="shared" ref="AH4:AH67" si="7">IF(AG4="",0,AG4/100*100)</f>
         <v>15</v>
       </c>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="18" t="s">
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="17" t="s">
         <v>83</v>
       </c>
       <c r="AK4" s="2">
@@ -2747,10 +2740,10 @@
         <v>15</v>
       </c>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="18" t="s">
+      <c r="AN4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4" s="17">
         <v>22.5</v>
       </c>
       <c r="AP4" s="2">
@@ -2758,48 +2751,48 @@
         <v>15</v>
       </c>
       <c r="AQ4" s="1"/>
-      <c r="AR4" s="45">
+      <c r="AR4" s="38">
         <f t="shared" ref="AR4:AR67" si="10">(AP4+AL4+AH4+AD4+Z4+V4+R4+N4+J4+F4)/10</f>
         <v>13.25</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="40.5">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:44" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>390790</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="3" t="s">
         <v>367</v>
       </c>
@@ -2830,21 +2823,21 @@
       <c r="AB5" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AC5" s="10"/>
+      <c r="AC5" s="9"/>
       <c r="AD5" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="10"/>
+      <c r="AE5" s="9"/>
       <c r="AF5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AG5" s="10"/>
+      <c r="AG5" s="9"/>
       <c r="AH5" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="10"/>
+      <c r="AI5" s="9"/>
       <c r="AJ5" s="3" t="s">
         <v>372</v>
       </c>
@@ -2863,48 +2856,48 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="3"/>
-      <c r="AR5" s="45">
+      <c r="AR5" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="40.5">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:44" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>390788</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="25"/>
+      <c r="O6" s="23"/>
       <c r="P6" s="3" t="s">
         <v>368</v>
       </c>
@@ -2935,21 +2928,21 @@
       <c r="AB6" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AC6" s="10"/>
+      <c r="AC6" s="9"/>
       <c r="AD6" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="10"/>
+      <c r="AE6" s="9"/>
       <c r="AF6" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AG6" s="10"/>
+      <c r="AG6" s="9"/>
       <c r="AH6" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="10"/>
+      <c r="AI6" s="9"/>
       <c r="AJ6" s="3" t="s">
         <v>334</v>
       </c>
@@ -2966,44 +2959,44 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="45">
+      <c r="AR6" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="23.25" customHeight="1">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:44" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>390794</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O7" s="25"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="2">
@@ -3030,12 +3023,12 @@
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="10"/>
+      <c r="AC7" s="9"/>
       <c r="AD7" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="10"/>
+      <c r="AE7" s="9"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="2">
@@ -3059,44 +3052,44 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="45">
+      <c r="AR7" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="27" customHeight="1">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>390796</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="25"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="3" t="s">
         <v>259</v>
       </c>
@@ -3123,12 +3116,12 @@
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="10"/>
+      <c r="AC8" s="9"/>
       <c r="AD8" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="10"/>
+      <c r="AE8" s="9"/>
       <c r="AF8" s="3" t="s">
         <v>319</v>
       </c>
@@ -3156,44 +3149,44 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="45">
+      <c r="AR8" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="14.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>390792</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O9" s="25"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="2">
@@ -3216,12 +3209,12 @@
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="10"/>
+      <c r="AC9" s="9"/>
       <c r="AD9" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="10"/>
+      <c r="AE9" s="9"/>
       <c r="AF9" s="3" t="s">
         <v>312</v>
       </c>
@@ -3245,42 +3238,42 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="45">
+      <c r="AR9" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="14.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>390798</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="25"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="2">
@@ -3303,12 +3296,12 @@
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="10"/>
+      <c r="AC10" s="9"/>
       <c r="AD10" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="10"/>
+      <c r="AE10" s="9"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="2">
@@ -3330,48 +3323,48 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="45">
+      <c r="AR10" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="67.5">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:44" ht="75" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>390811</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O11" s="25"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="3" t="s">
         <v>260</v>
       </c>
@@ -3402,12 +3395,12 @@
       <c r="AB11" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AC11" s="10"/>
+      <c r="AC11" s="9"/>
       <c r="AD11" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="10"/>
+      <c r="AE11" s="9"/>
       <c r="AF11" s="3" t="s">
         <v>325</v>
       </c>
@@ -3435,44 +3428,44 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="45">
+      <c r="AR11" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="14.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>390817</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="25"/>
+      <c r="O12" s="23"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="2">
@@ -3497,12 +3490,12 @@
       </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="10"/>
+      <c r="AC12" s="9"/>
       <c r="AD12" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="10"/>
+      <c r="AE12" s="9"/>
       <c r="AF12" s="3" t="s">
         <v>316</v>
       </c>
@@ -3526,44 +3519,44 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="45">
+      <c r="AR12" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="14.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>390803</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="M13" s="19"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="3" t="s">
         <v>268</v>
       </c>
@@ -3588,12 +3581,12 @@
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="10"/>
+      <c r="AC13" s="9"/>
       <c r="AD13" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="10"/>
+      <c r="AE13" s="9"/>
       <c r="AF13" s="3" t="s">
         <v>311</v>
       </c>
@@ -3619,46 +3612,46 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="45">
+      <c r="AR13" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="14.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>390815</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="25"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="3" t="s">
         <v>264</v>
       </c>
@@ -3687,12 +3680,12 @@
       </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="9"/>
       <c r="AD14" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="10"/>
+      <c r="AE14" s="9"/>
       <c r="AF14" s="3" t="s">
         <v>314</v>
       </c>
@@ -3716,48 +3709,48 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="45">
+      <c r="AR14" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="14.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>390805</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I15" s="19"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="M15" s="19"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="25"/>
+      <c r="O15" s="23"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="2">
@@ -3782,12 +3775,12 @@
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
-      <c r="AC15" s="10"/>
+      <c r="AC15" s="9"/>
       <c r="AD15" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="10"/>
+      <c r="AE15" s="9"/>
       <c r="AF15" s="3" t="s">
         <v>320</v>
       </c>
@@ -3815,44 +3808,44 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="45">
+      <c r="AR15" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="14.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>390807</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="25"/>
+      <c r="O16" s="23"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="2">
@@ -3875,12 +3868,12 @@
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-      <c r="AC16" s="10"/>
+      <c r="AC16" s="9"/>
       <c r="AD16" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="10"/>
+      <c r="AE16" s="9"/>
       <c r="AF16" s="3" t="s">
         <v>313</v>
       </c>
@@ -3904,42 +3897,42 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="3"/>
-      <c r="AR16" s="45">
+      <c r="AR16" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="14.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>390813</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="25"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="2">
@@ -3962,12 +3955,12 @@
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
-      <c r="AC17" s="10"/>
+      <c r="AC17" s="9"/>
       <c r="AD17" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="10"/>
+      <c r="AE17" s="9"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="2">
@@ -3989,44 +3982,44 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="3"/>
-      <c r="AR17" s="45">
+      <c r="AR17" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="14.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>390809</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="25"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="2">
@@ -4051,12 +4044,12 @@
       </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-      <c r="AC18" s="10"/>
+      <c r="AC18" s="9"/>
       <c r="AD18" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="10"/>
+      <c r="AE18" s="9"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="2">
@@ -4078,42 +4071,42 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="3"/>
-      <c r="AR18" s="45">
+      <c r="AR18" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="14.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>390819</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O19" s="25"/>
+      <c r="O19" s="23"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="2">
@@ -4136,12 +4129,12 @@
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="10"/>
+      <c r="AC19" s="9"/>
       <c r="AD19" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="10"/>
+      <c r="AE19" s="9"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="2">
@@ -4165,42 +4158,42 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="45">
+      <c r="AR19" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="14.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>390821</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="25"/>
+      <c r="O20" s="23"/>
       <c r="P20" s="3" t="s">
         <v>265</v>
       </c>
@@ -4227,12 +4220,12 @@
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="10"/>
+      <c r="AC20" s="9"/>
       <c r="AD20" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="10"/>
+      <c r="AE20" s="9"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="2">
@@ -4254,42 +4247,42 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="3"/>
-      <c r="AR20" s="45">
+      <c r="AR20" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="14.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>390823</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="2">
@@ -4312,12 +4305,12 @@
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
-      <c r="AC21" s="10"/>
+      <c r="AC21" s="9"/>
       <c r="AD21" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="10"/>
+      <c r="AE21" s="9"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="2">
@@ -4339,54 +4332,54 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="3"/>
-      <c r="AR21" s="45">
+      <c r="AR21" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="40.5">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:44" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>390849</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>163</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="18" t="s">
         <v>197</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="2"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="O22" s="25"/>
+      <c r="O22" s="23"/>
       <c r="P22" s="3" t="s">
         <v>261</v>
       </c>
@@ -4430,7 +4423,7 @@
         <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
-      <c r="AE22" s="10"/>
+      <c r="AE22" s="9"/>
       <c r="AF22" s="3" t="s">
         <v>315</v>
       </c>
@@ -4464,50 +4457,50 @@
         <v>11.666666666666666</v>
       </c>
       <c r="AQ22" s="3"/>
-      <c r="AR22" s="45">
+      <c r="AR22" s="38">
         <f t="shared" si="10"/>
         <v>11.916666666666666</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="14.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>390851</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>164</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19" t="s">
+      <c r="K23" s="18"/>
+      <c r="L23" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="18" t="s">
         <v>229</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="O23" s="25"/>
+      <c r="O23" s="23"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="2">
@@ -4530,12 +4523,12 @@
       </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="9"/>
       <c r="AD23" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="10"/>
+      <c r="AE23" s="9"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="2">
@@ -4557,50 +4550,50 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="45">
+      <c r="AR23" s="38">
         <f t="shared" si="10"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="14.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>390845</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>164</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="18" t="s">
         <v>198</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="25"/>
+      <c r="O24" s="23"/>
       <c r="P24" s="3" t="s">
         <v>262</v>
       </c>
@@ -4635,12 +4628,12 @@
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="10"/>
+      <c r="AC24" s="9"/>
       <c r="AD24" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="10"/>
+      <c r="AE24" s="9"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="2">
@@ -4670,46 +4663,46 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="AQ24" s="3"/>
-      <c r="AR24" s="45">
+      <c r="AR24" s="38">
         <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="14.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>390847</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19" t="s">
+      <c r="K25" s="18"/>
+      <c r="L25" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="18" t="s">
         <v>230</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="O25" s="25"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="3">
         <v>22</v>
       </c>
@@ -4742,14 +4735,14 @@
       <c r="AB25" s="3">
         <v>25</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC25" s="9">
         <v>2.5</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="6"/>
         <v>2.083333333333333</v>
       </c>
-      <c r="AE25" s="10"/>
+      <c r="AE25" s="9"/>
       <c r="AF25" s="3">
         <v>23</v>
       </c>
@@ -4779,50 +4772,50 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="3"/>
-      <c r="AR25" s="45">
+      <c r="AR25" s="38">
         <f t="shared" si="10"/>
         <v>1.2749999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="14.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>390841</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>165</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19" t="s">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="18" t="s">
         <v>231</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="O26" s="25"/>
+      <c r="O26" s="23"/>
       <c r="P26" s="3">
         <v>30</v>
       </c>
@@ -4849,12 +4842,12 @@
       </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="10"/>
+      <c r="AC26" s="9"/>
       <c r="AD26" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="10"/>
+      <c r="AE26" s="9"/>
       <c r="AF26" s="3">
         <v>25</v>
       </c>
@@ -4884,42 +4877,42 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="3"/>
-      <c r="AR26" s="45">
+      <c r="AR26" s="38">
         <f t="shared" si="10"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="14.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>390855</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
       <c r="N27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="25"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="3">
         <v>26</v>
       </c>
@@ -4946,12 +4939,12 @@
       </c>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="10"/>
+      <c r="AC27" s="9"/>
       <c r="AD27" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="10"/>
+      <c r="AE27" s="9"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="2">
@@ -4973,54 +4966,54 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="3"/>
-      <c r="AR27" s="45">
+      <c r="AR27" s="38">
         <f t="shared" si="10"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="14.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>390843</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>165</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="18" t="s">
         <v>198</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19" t="s">
+      <c r="K28" s="18"/>
+      <c r="L28" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="18" t="s">
         <v>232</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="O28" s="25"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="2">
@@ -5053,14 +5046,14 @@
       <c r="AB28" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="AC28" s="10">
+      <c r="AC28" s="9">
         <v>7.5</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="6"/>
         <v>6.25</v>
       </c>
-      <c r="AE28" s="10"/>
+      <c r="AE28" s="9"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="2">
@@ -5086,42 +5079,42 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="AQ28" s="3"/>
-      <c r="AR28" s="45">
+      <c r="AR28" s="38">
         <f t="shared" si="10"/>
         <v>2.4583333333333335</v>
       </c>
     </row>
-    <row r="29" spans="1:44" ht="14.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>390857</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
       <c r="N29" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O29" s="25"/>
+      <c r="O29" s="23"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="2">
@@ -5144,12 +5137,12 @@
       </c>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="10"/>
+      <c r="AC29" s="9"/>
       <c r="AD29" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="10"/>
+      <c r="AE29" s="9"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="2">
@@ -5171,54 +5164,54 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="3"/>
-      <c r="AR29" s="45">
+      <c r="AR29" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" ht="14.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>390935</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>163</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="18" t="s">
         <v>202</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19" t="s">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="18" t="s">
         <v>81</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="O30" s="25"/>
+      <c r="O30" s="23"/>
       <c r="P30" s="3" t="s">
         <v>263</v>
       </c>
@@ -5255,14 +5248,14 @@
       <c r="AB30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AC30" s="9">
         <v>10</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="6"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="AE30" s="10"/>
+      <c r="AE30" s="9"/>
       <c r="AF30" s="3" t="s">
         <v>317</v>
       </c>
@@ -5296,54 +5289,54 @@
         <v>6.666666666666667</v>
       </c>
       <c r="AQ30" s="3"/>
-      <c r="AR30" s="45">
+      <c r="AR30" s="38">
         <f t="shared" si="10"/>
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="31" spans="1:44" ht="40.5">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:44" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>390826</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>173</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="18" t="s">
         <v>207</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19" t="s">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="18" t="s">
         <v>240</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="O31" s="25"/>
+      <c r="O31" s="23"/>
       <c r="P31" s="3" t="s">
         <v>267</v>
       </c>
@@ -5387,7 +5380,7 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="AE31" s="10"/>
+      <c r="AE31" s="9"/>
       <c r="AF31" s="3" t="s">
         <v>322</v>
       </c>
@@ -5421,46 +5414,46 @@
         <v>16</v>
       </c>
       <c r="AQ31" s="3"/>
-      <c r="AR31" s="45">
+      <c r="AR31" s="38">
         <f t="shared" si="10"/>
         <v>16.8</v>
       </c>
     </row>
-    <row r="32" spans="1:44" ht="14.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>390828</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19" t="s">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="18" t="s">
         <v>238</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O32" s="25"/>
+      <c r="O32" s="23"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="2">
@@ -5500,7 +5493,7 @@
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="AE32" s="10"/>
+      <c r="AE32" s="9"/>
       <c r="AF32" s="3" t="s">
         <v>321</v>
       </c>
@@ -5534,54 +5527,54 @@
         <v>3</v>
       </c>
       <c r="AQ32" s="3"/>
-      <c r="AR32" s="45">
+      <c r="AR32" s="38">
         <f t="shared" si="10"/>
         <v>1.55</v>
       </c>
     </row>
-    <row r="33" spans="1:44" ht="14.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>390834</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>172</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="18" t="s">
         <v>208</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19" t="s">
+      <c r="K33" s="18"/>
+      <c r="L33" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="18" t="s">
         <v>239</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O33" s="25"/>
+      <c r="O33" s="23"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="2">
@@ -5613,7 +5606,7 @@
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="AE33" s="10"/>
+      <c r="AE33" s="9"/>
       <c r="AF33" s="3">
         <v>32</v>
       </c>
@@ -5643,42 +5636,42 @@
         <v>1</v>
       </c>
       <c r="AQ33" s="3"/>
-      <c r="AR33" s="45">
+      <c r="AR33" s="38">
         <f t="shared" si="10"/>
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:44" ht="14.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>390830</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O34" s="25"/>
+      <c r="O34" s="23"/>
       <c r="P34" s="3" t="s">
         <v>266</v>
       </c>
@@ -5709,12 +5702,12 @@
       </c>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="10"/>
+      <c r="AC34" s="9"/>
       <c r="AD34" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="10"/>
+      <c r="AE34" s="9"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="2">
@@ -5736,42 +5729,42 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="3"/>
-      <c r="AR34" s="45">
+      <c r="AR34" s="38">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:44" ht="14.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>390832</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O35" s="25"/>
+      <c r="O35" s="23"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="2">
@@ -5794,12 +5787,12 @@
       </c>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="10"/>
+      <c r="AC35" s="9"/>
       <c r="AD35" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="10"/>
+      <c r="AE35" s="9"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="2">
@@ -5821,48 +5814,48 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="3"/>
-      <c r="AR35" s="45">
+      <c r="AR35" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" ht="14.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>390929</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
+      <c r="G36" s="18"/>
+      <c r="H36" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="I36" s="19"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19" t="s">
+      <c r="K36" s="18"/>
+      <c r="L36" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="M36" s="19"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O36" s="25"/>
+      <c r="O36" s="23"/>
       <c r="P36" s="3" t="s">
         <v>269</v>
       </c>
@@ -5893,12 +5886,12 @@
       <c r="AB36" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="AC36" s="10"/>
+      <c r="AC36" s="9"/>
       <c r="AD36" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="10"/>
+      <c r="AE36" s="9"/>
       <c r="AF36" s="3" t="s">
         <v>323</v>
       </c>
@@ -5926,46 +5919,46 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="3"/>
-      <c r="AR36" s="45">
+      <c r="AR36" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="14.25">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>390424</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O37" s="25"/>
+      <c r="O37" s="23"/>
       <c r="P37" s="3">
         <v>65</v>
       </c>
@@ -5992,12 +5985,12 @@
       </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="10"/>
+      <c r="AC37" s="9"/>
       <c r="AD37" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="10"/>
+      <c r="AE37" s="9"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="2">
@@ -6023,42 +6016,42 @@
         <v>1</v>
       </c>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="45">
+      <c r="AR37" s="38">
         <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:44" ht="14.25">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>390625</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O38" s="25"/>
+      <c r="O38" s="23"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="2">
@@ -6081,12 +6074,12 @@
       </c>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
-      <c r="AC38" s="10"/>
+      <c r="AC38" s="9"/>
       <c r="AD38" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="10"/>
+      <c r="AE38" s="9"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="2">
@@ -6108,46 +6101,46 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="3"/>
-      <c r="AR38" s="45">
+      <c r="AR38" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" ht="14.25">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>390692</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O39" s="25"/>
+      <c r="O39" s="23"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="2">
@@ -6170,12 +6163,12 @@
       </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-      <c r="AC39" s="10"/>
+      <c r="AC39" s="9"/>
       <c r="AD39" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="10"/>
+      <c r="AE39" s="9"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="2">
@@ -6197,42 +6190,42 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="3"/>
-      <c r="AR39" s="45">
+      <c r="AR39" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" ht="14.25">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>390596</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
       <c r="N40" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O40" s="25"/>
+      <c r="O40" s="23"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="2">
@@ -6255,12 +6248,12 @@
       </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-      <c r="AC40" s="10"/>
+      <c r="AC40" s="9"/>
       <c r="AD40" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="10"/>
+      <c r="AE40" s="9"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="2">
@@ -6282,46 +6275,46 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="3"/>
-      <c r="AR40" s="45">
+      <c r="AR40" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" ht="14.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>390566</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
       <c r="N41" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O41" s="25"/>
+      <c r="O41" s="23"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="2">
@@ -6344,12 +6337,12 @@
       </c>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
-      <c r="AC41" s="10"/>
+      <c r="AC41" s="9"/>
       <c r="AD41" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="10"/>
+      <c r="AE41" s="9"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="2">
@@ -6375,46 +6368,46 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="3"/>
-      <c r="AR41" s="45">
+      <c r="AR41" s="38">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:44" ht="14.25">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>390567</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19" t="s">
+      <c r="K42" s="18"/>
+      <c r="L42" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="M42" s="19" t="s">
+      <c r="M42" s="18" t="s">
         <v>252</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O42" s="25"/>
+      <c r="O42" s="23"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="2">
@@ -6437,12 +6430,12 @@
       </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
-      <c r="AC42" s="10"/>
+      <c r="AC42" s="9"/>
       <c r="AD42" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="10"/>
+      <c r="AE42" s="9"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="2">
@@ -6464,46 +6457,46 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="3"/>
-      <c r="AR42" s="45">
+      <c r="AR42" s="38">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:44" ht="14.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>390564</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19" t="s">
+      <c r="K43" s="18"/>
+      <c r="L43" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="M43" s="19" t="s">
+      <c r="M43" s="18" t="s">
         <v>252</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O43" s="25"/>
+      <c r="O43" s="23"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="2">
@@ -6528,14 +6521,14 @@
       <c r="AB43" s="3">
         <v>57</v>
       </c>
-      <c r="AC43" s="10">
+      <c r="AC43" s="9">
         <v>1</v>
       </c>
       <c r="AD43" s="2">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE43" s="10"/>
+      <c r="AE43" s="9"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="2">
@@ -6557,46 +6550,46 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="3"/>
-      <c r="AR43" s="45">
+      <c r="AR43" s="38">
         <f t="shared" si="10"/>
         <v>0.18333333333333335</v>
       </c>
     </row>
-    <row r="44" spans="1:44" ht="14.25">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>390562</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O44" s="25"/>
+      <c r="O44" s="23"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="2">
@@ -6619,12 +6612,12 @@
       </c>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AC44" s="10"/>
+      <c r="AC44" s="9"/>
       <c r="AD44" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE44" s="10"/>
+      <c r="AE44" s="9"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="2">
@@ -6646,42 +6639,42 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="3"/>
-      <c r="AR44" s="45">
+      <c r="AR44" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" ht="14.25">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>390551</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
       <c r="N45" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O45" s="25"/>
+      <c r="O45" s="23"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="2">
@@ -6704,12 +6697,12 @@
       </c>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
-      <c r="AC45" s="10"/>
+      <c r="AC45" s="9"/>
       <c r="AD45" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="10"/>
+      <c r="AE45" s="9"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="2">
@@ -6735,46 +6728,46 @@
         <v>1</v>
       </c>
       <c r="AQ45" s="3"/>
-      <c r="AR45" s="45">
+      <c r="AR45" s="38">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:44" ht="14.25">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>390545</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19" t="s">
+      <c r="G46" s="18"/>
+      <c r="H46" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
       <c r="N46" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O46" s="25"/>
+      <c r="O46" s="23"/>
       <c r="P46" s="3">
         <v>63</v>
       </c>
@@ -6811,14 +6804,14 @@
       <c r="AB46" s="3">
         <v>65</v>
       </c>
-      <c r="AC46" s="10">
+      <c r="AC46" s="9">
         <v>1</v>
       </c>
       <c r="AD46" s="2">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE46" s="10"/>
+      <c r="AE46" s="9"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="2">
@@ -6840,42 +6833,42 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="3"/>
-      <c r="AR46" s="45">
+      <c r="AR46" s="38">
         <f t="shared" si="10"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="47" spans="1:44" ht="14.25">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>390549</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O47" s="25"/>
+      <c r="O47" s="23"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="2">
@@ -6898,12 +6891,12 @@
       </c>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
-      <c r="AC47" s="10"/>
+      <c r="AC47" s="9"/>
       <c r="AD47" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="10"/>
+      <c r="AE47" s="9"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="2">
@@ -6925,42 +6918,42 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="3"/>
-      <c r="AR47" s="45">
+      <c r="AR47" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" ht="14.25">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>390553</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
       <c r="N48" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O48" s="25"/>
+      <c r="O48" s="23"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="2">
@@ -6983,12 +6976,12 @@
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AC48" s="10"/>
+      <c r="AC48" s="9"/>
       <c r="AD48" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE48" s="10"/>
+      <c r="AE48" s="9"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="2">
@@ -7010,46 +7003,46 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="3"/>
-      <c r="AR48" s="45">
+      <c r="AR48" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" ht="14.25">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>390546</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19" t="s">
+      <c r="G49" s="18"/>
+      <c r="H49" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="I49" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
       <c r="N49" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O49" s="25"/>
+      <c r="O49" s="23"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="2">
@@ -7076,12 +7069,12 @@
       </c>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
-      <c r="AC49" s="10"/>
+      <c r="AC49" s="9"/>
       <c r="AD49" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="10"/>
+      <c r="AE49" s="9"/>
       <c r="AF49" s="3" t="s">
         <v>327</v>
       </c>
@@ -7107,40 +7100,40 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="3"/>
-      <c r="AR49" s="45">
+      <c r="AR49" s="38">
         <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:44" ht="14.25">
-      <c r="A50" s="20" t="s">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
       <c r="N50" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O50" s="25"/>
+      <c r="O50" s="23"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="2">
@@ -7171,12 +7164,12 @@
       </c>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
-      <c r="AC50" s="10"/>
+      <c r="AC50" s="9"/>
       <c r="AD50" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="10"/>
+      <c r="AE50" s="9"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="2">
@@ -7202,42 +7195,42 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="3"/>
-      <c r="AR50" s="45">
+      <c r="AR50" s="38">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="14.25">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>390500</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
       <c r="N51" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O51" s="25"/>
+      <c r="O51" s="23"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="2">
@@ -7262,14 +7255,14 @@
       <c r="AB51" s="3">
         <v>64</v>
       </c>
-      <c r="AC51" s="10">
+      <c r="AC51" s="9">
         <v>1</v>
       </c>
       <c r="AD51" s="2">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE51" s="10"/>
+      <c r="AE51" s="9"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="2">
@@ -7291,42 +7284,42 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="3"/>
-      <c r="AR51" s="45">
+      <c r="AR51" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333343E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="14.25">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>390497</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
       <c r="F52" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
       <c r="N52" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O52" s="25"/>
+      <c r="O52" s="23"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="2">
@@ -7351,14 +7344,14 @@
       <c r="AB52" s="3">
         <v>63</v>
       </c>
-      <c r="AC52" s="10">
+      <c r="AC52" s="9">
         <v>1</v>
       </c>
       <c r="AD52" s="2">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE52" s="10"/>
+      <c r="AE52" s="9"/>
       <c r="AF52" s="3">
         <v>48</v>
       </c>
@@ -7384,42 +7377,42 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="3"/>
-      <c r="AR52" s="45">
+      <c r="AR52" s="38">
         <f t="shared" si="10"/>
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="14.25">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>390515</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
       <c r="N53" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O53" s="25"/>
+      <c r="O53" s="23"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="2">
@@ -7442,12 +7435,12 @@
       </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
-      <c r="AC53" s="10"/>
+      <c r="AC53" s="9"/>
       <c r="AD53" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="10"/>
+      <c r="AE53" s="9"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="2">
@@ -7469,42 +7462,42 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="3"/>
-      <c r="AR53" s="45">
+      <c r="AR53" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" ht="27">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>390512</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O54" s="25"/>
+      <c r="O54" s="23"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="2">
@@ -7527,12 +7520,12 @@
       </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
-      <c r="AC54" s="10"/>
+      <c r="AC54" s="9"/>
       <c r="AD54" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="10"/>
+      <c r="AE54" s="9"/>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="2">
@@ -7558,50 +7551,50 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="3"/>
-      <c r="AR54" s="45">
+      <c r="AR54" s="38">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:44" ht="14.25">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>390414</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19" t="s">
+      <c r="K55" s="18"/>
+      <c r="L55" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="M55" s="19" t="s">
+      <c r="M55" s="18" t="s">
         <v>252</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O55" s="25"/>
+      <c r="O55" s="23"/>
       <c r="P55" s="3">
         <v>57</v>
       </c>
@@ -7636,12 +7629,12 @@
       </c>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-      <c r="AC55" s="10"/>
+      <c r="AC55" s="9"/>
       <c r="AD55" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="10"/>
+      <c r="AE55" s="9"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
       <c r="AH55" s="2">
@@ -7667,46 +7660,46 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="3"/>
-      <c r="AR55" s="45">
+      <c r="AR55" s="38">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="14.25">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>390483</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19" t="s">
+      <c r="G56" s="18"/>
+      <c r="H56" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="I56" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
       <c r="N56" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O56" s="25"/>
+      <c r="O56" s="23"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="2">
@@ -7733,12 +7726,12 @@
       </c>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-      <c r="AC56" s="10"/>
+      <c r="AC56" s="9"/>
       <c r="AD56" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE56" s="10"/>
+      <c r="AE56" s="9"/>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
       <c r="AH56" s="2">
@@ -7760,42 +7753,42 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="3"/>
-      <c r="AR56" s="45">
+      <c r="AR56" s="38">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="14.25">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>390479</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
       <c r="N57" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O57" s="25"/>
+      <c r="O57" s="23"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="2">
@@ -7824,14 +7817,14 @@
       <c r="AB57" s="3">
         <v>62</v>
       </c>
-      <c r="AC57" s="10">
+      <c r="AC57" s="9">
         <v>1</v>
       </c>
       <c r="AD57" s="2">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE57" s="10"/>
+      <c r="AE57" s="9"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
       <c r="AH57" s="2">
@@ -7853,42 +7846,42 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="3"/>
-      <c r="AR57" s="45">
+      <c r="AR57" s="38">
         <f t="shared" si="10"/>
         <v>0.18333333333333335</v>
       </c>
     </row>
-    <row r="58" spans="1:44" ht="14.25">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>390491</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
       <c r="J58" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
       <c r="N58" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O58" s="25"/>
+      <c r="O58" s="23"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="2">
@@ -7911,12 +7904,12 @@
       </c>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
-      <c r="AC58" s="10"/>
+      <c r="AC58" s="9"/>
       <c r="AD58" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE58" s="10"/>
+      <c r="AE58" s="9"/>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="2">
@@ -7938,42 +7931,42 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="3"/>
-      <c r="AR58" s="45">
+      <c r="AR58" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:44" ht="14.25">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>390489</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
       <c r="F59" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
       <c r="N59" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O59" s="25"/>
+      <c r="O59" s="23"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="2">
@@ -7996,12 +7989,12 @@
       </c>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
-      <c r="AC59" s="10"/>
+      <c r="AC59" s="9"/>
       <c r="AD59" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE59" s="10"/>
+      <c r="AE59" s="9"/>
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
       <c r="AH59" s="2">
@@ -8023,50 +8016,50 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="3"/>
-      <c r="AR59" s="45">
+      <c r="AR59" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="14.25">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>390438</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19" t="s">
+      <c r="K60" s="18"/>
+      <c r="L60" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="M60" s="19" t="s">
+      <c r="M60" s="18" t="s">
         <v>252</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O60" s="25"/>
+      <c r="O60" s="23"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="2">
@@ -8091,14 +8084,14 @@
       <c r="AB60" s="3">
         <v>58</v>
       </c>
-      <c r="AC60" s="10">
+      <c r="AC60" s="9">
         <v>1</v>
       </c>
       <c r="AD60" s="2">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE60" s="10"/>
+      <c r="AE60" s="9"/>
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
       <c r="AH60" s="2">
@@ -8124,42 +8117,42 @@
         <v>1</v>
       </c>
       <c r="AQ60" s="3"/>
-      <c r="AR60" s="45">
+      <c r="AR60" s="38">
         <f t="shared" si="10"/>
         <v>0.28333333333333333</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="14.25">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>390440</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
       <c r="F61" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
       <c r="N61" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O61" s="25"/>
+      <c r="O61" s="23"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="2">
@@ -8190,12 +8183,12 @@
       </c>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
-      <c r="AC61" s="10"/>
+      <c r="AC61" s="9"/>
       <c r="AD61" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE61" s="10"/>
+      <c r="AE61" s="9"/>
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
       <c r="AH61" s="2">
@@ -8217,54 +8210,54 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="3"/>
-      <c r="AR61" s="45">
+      <c r="AR61" s="38">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="14.25">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>390407</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19" t="s">
+      <c r="G62" s="18"/>
+      <c r="H62" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I62" s="18" t="s">
         <v>185</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19" t="s">
+      <c r="K62" s="18"/>
+      <c r="L62" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="M62" s="19" t="s">
+      <c r="M62" s="18" t="s">
         <v>239</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O62" s="25"/>
+      <c r="O62" s="23"/>
       <c r="P62" s="3">
         <v>58</v>
       </c>
@@ -8296,7 +8289,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE62" s="10"/>
+      <c r="AE62" s="9"/>
       <c r="AF62" s="3" t="s">
         <v>326</v>
       </c>
@@ -8330,54 +8323,54 @@
         <v>3</v>
       </c>
       <c r="AQ62" s="3"/>
-      <c r="AR62" s="45">
+      <c r="AR62" s="38">
         <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="14.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>390625</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19" t="s">
+      <c r="G63" s="18"/>
+      <c r="H63" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19" t="s">
+      <c r="K63" s="18"/>
+      <c r="L63" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="M63" s="19" t="s">
+      <c r="M63" s="18" t="s">
         <v>252</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O63" s="25"/>
+      <c r="O63" s="23"/>
       <c r="P63" s="3">
         <v>56</v>
       </c>
@@ -8410,14 +8403,14 @@
       <c r="AB63" s="3">
         <v>60</v>
       </c>
-      <c r="AC63" s="10">
+      <c r="AC63" s="9">
         <v>1</v>
       </c>
       <c r="AD63" s="2">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE63" s="10"/>
+      <c r="AE63" s="9"/>
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
       <c r="AH63" s="2">
@@ -8443,42 +8436,42 @@
         <v>1</v>
       </c>
       <c r="AQ63" s="3"/>
-      <c r="AR63" s="45">
+      <c r="AR63" s="38">
         <f t="shared" si="10"/>
         <v>0.68333333333333335</v>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="14.25">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>390628</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
       <c r="N64" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O64" s="25"/>
+      <c r="O64" s="23"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="2">
@@ -8506,7 +8499,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE64" s="10"/>
+      <c r="AE64" s="9"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="2">
@@ -8528,42 +8521,42 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="3"/>
-      <c r="AR64" s="45">
+      <c r="AR64" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:44" ht="14.25">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>390631</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
       <c r="N65" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O65" s="25"/>
+      <c r="O65" s="23"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="2">
@@ -8591,7 +8584,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE65" s="10"/>
+      <c r="AE65" s="9"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="2">
@@ -8613,42 +8606,42 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="3"/>
-      <c r="AR65" s="45">
+      <c r="AR65" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:44" ht="14.25">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>390647</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
       <c r="F66" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O66" s="25"/>
+      <c r="O66" s="23"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="2">
@@ -8671,12 +8664,12 @@
       </c>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
-      <c r="AC66" s="10"/>
+      <c r="AC66" s="9"/>
       <c r="AD66" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE66" s="10"/>
+      <c r="AE66" s="9"/>
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
       <c r="AH66" s="2">
@@ -8698,42 +8691,42 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="3"/>
-      <c r="AR66" s="45">
+      <c r="AR66" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:44" ht="14.25">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>390642</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O67" s="25"/>
+      <c r="O67" s="23"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="2">
@@ -8760,12 +8753,12 @@
       </c>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-      <c r="AC67" s="10"/>
+      <c r="AC67" s="9"/>
       <c r="AD67" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE67" s="10"/>
+      <c r="AE67" s="9"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="2">
@@ -8787,42 +8780,42 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="3"/>
-      <c r="AR67" s="45">
+      <c r="AR67" s="38">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:44" ht="14.25">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>390620</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="2">
         <f t="shared" ref="F68:F99" si="11">IF(I68="",0,I68/100*100)</f>
         <v>0</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="2">
         <f t="shared" ref="J68:J99" si="12">IF(I68="",0,I68/100*100)</f>
         <v>0</v>
       </c>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
       <c r="N68" s="2">
         <f t="shared" ref="N68:N99" si="13">IF(M68="",0,M68/150*100)</f>
         <v>0</v>
       </c>
-      <c r="O68" s="25"/>
+      <c r="O68" s="23"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="2">
@@ -8845,12 +8838,12 @@
       </c>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
-      <c r="AC68" s="10"/>
+      <c r="AC68" s="9"/>
       <c r="AD68" s="2">
         <f t="shared" ref="AD68:AD99" si="17">IF(AC68="",0,AC68/120*100)</f>
         <v>0</v>
       </c>
-      <c r="AE68" s="10"/>
+      <c r="AE68" s="9"/>
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
       <c r="AH68" s="2">
@@ -8876,46 +8869,46 @@
         <v>1</v>
       </c>
       <c r="AQ68" s="3"/>
-      <c r="AR68" s="45">
+      <c r="AR68" s="38">
         <f t="shared" ref="AR68:AR99" si="21">(AP68+AL68+AH68+AD68+Z68+V68+R68+N68+J68+F68)/10</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:44" ht="14.25">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>390502</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
       <c r="N69" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O69" s="25"/>
+      <c r="O69" s="23"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="2">
@@ -8938,12 +8931,12 @@
       </c>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
-      <c r="AC69" s="10"/>
+      <c r="AC69" s="9"/>
       <c r="AD69" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE69" s="10"/>
+      <c r="AE69" s="9"/>
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
       <c r="AH69" s="2">
@@ -8965,46 +8958,46 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="3"/>
-      <c r="AR69" s="45">
+      <c r="AR69" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:44" ht="14.25">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>390507</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19" t="s">
+      <c r="G70" s="18"/>
+      <c r="H70" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
       <c r="N70" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O70" s="25"/>
+      <c r="O70" s="23"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="2">
@@ -9027,12 +9020,12 @@
       </c>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
-      <c r="AC70" s="10"/>
+      <c r="AC70" s="9"/>
       <c r="AD70" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE70" s="10"/>
+      <c r="AE70" s="9"/>
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
       <c r="AH70" s="2">
@@ -9054,46 +9047,46 @@
         <v>0</v>
       </c>
       <c r="AQ70" s="3"/>
-      <c r="AR70" s="45">
+      <c r="AR70" s="38">
         <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:44" ht="14.25">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>390505</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
       <c r="F71" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19" t="s">
+      <c r="K71" s="18"/>
+      <c r="L71" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="M71" s="19" t="s">
+      <c r="M71" s="18" t="s">
         <v>252</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O71" s="25"/>
+      <c r="O71" s="23"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="2">
@@ -9116,12 +9109,12 @@
       </c>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
-      <c r="AC71" s="10"/>
+      <c r="AC71" s="9"/>
       <c r="AD71" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE71" s="10"/>
+      <c r="AE71" s="9"/>
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
       <c r="AH71" s="2">
@@ -9147,42 +9140,42 @@
         <v>1</v>
       </c>
       <c r="AQ71" s="3"/>
-      <c r="AR71" s="45">
+      <c r="AR71" s="38">
         <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:44" ht="14.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>390510</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
       <c r="F72" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
       <c r="N72" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O72" s="25"/>
+      <c r="O72" s="23"/>
       <c r="P72" s="3">
         <v>62</v>
       </c>
@@ -9211,14 +9204,14 @@
       <c r="AB72" s="3">
         <v>56</v>
       </c>
-      <c r="AC72" s="10">
+      <c r="AC72" s="9">
         <v>1</v>
       </c>
       <c r="AD72" s="2">
         <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE72" s="10"/>
+      <c r="AE72" s="9"/>
       <c r="AF72" s="3">
         <v>55</v>
       </c>
@@ -9244,46 +9237,46 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="3"/>
-      <c r="AR72" s="45">
+      <c r="AR72" s="38">
         <f t="shared" si="21"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="73" spans="1:44" ht="14.25">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="15">
         <v>390519</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="19"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="18"/>
       <c r="F73" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="G73" s="24"/>
-      <c r="H73" s="19" t="s">
+      <c r="G73" s="22"/>
+      <c r="H73" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="I73" s="19" t="s">
+      <c r="I73" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
       <c r="N73" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O73" s="25"/>
+      <c r="O73" s="23"/>
       <c r="P73" s="3">
         <v>64</v>
       </c>
@@ -9314,12 +9307,12 @@
       </c>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
-      <c r="AC73" s="10"/>
+      <c r="AC73" s="9"/>
       <c r="AD73" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE73" s="10"/>
+      <c r="AE73" s="9"/>
       <c r="AF73" s="3">
         <v>47</v>
       </c>
@@ -9345,42 +9338,42 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="3"/>
-      <c r="AR73" s="45">
+      <c r="AR73" s="38">
         <f t="shared" si="21"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:44" ht="14.25">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>390522</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="19"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="18"/>
       <c r="F74" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
       <c r="J74" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
       <c r="N74" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O74" s="25"/>
+      <c r="O74" s="23"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="2">
@@ -9403,12 +9396,12 @@
       </c>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
-      <c r="AC74" s="10"/>
+      <c r="AC74" s="9"/>
       <c r="AD74" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE74" s="10"/>
+      <c r="AE74" s="9"/>
       <c r="AF74" s="3"/>
       <c r="AG74" s="3"/>
       <c r="AH74" s="2">
@@ -9434,42 +9427,42 @@
         <v>0</v>
       </c>
       <c r="AQ74" s="3"/>
-      <c r="AR74" s="45">
+      <c r="AR74" s="38">
         <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:44" ht="14.25">
-      <c r="A75" s="16" t="s">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="15">
         <v>390525</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="19"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="18"/>
       <c r="F75" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
       <c r="J75" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
       <c r="N75" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O75" s="25"/>
+      <c r="O75" s="23"/>
       <c r="P75" s="3">
         <v>59</v>
       </c>
@@ -9496,12 +9489,12 @@
       </c>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
-      <c r="AC75" s="10"/>
+      <c r="AC75" s="9"/>
       <c r="AD75" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE75" s="10"/>
+      <c r="AE75" s="9"/>
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
       <c r="AH75" s="2">
@@ -9523,42 +9516,42 @@
         <v>0</v>
       </c>
       <c r="AQ75" s="3"/>
-      <c r="AR75" s="45">
+      <c r="AR75" s="38">
         <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:44" ht="14.25">
-      <c r="A76" s="16" t="s">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="15">
         <v>390487</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="19"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="18"/>
       <c r="F76" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G76" s="24"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
       <c r="J76" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
       <c r="N76" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O76" s="25"/>
+      <c r="O76" s="23"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="2">
@@ -9581,12 +9574,12 @@
       </c>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
-      <c r="AC76" s="10"/>
+      <c r="AC76" s="9"/>
       <c r="AD76" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE76" s="10"/>
+      <c r="AE76" s="9"/>
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
       <c r="AH76" s="2">
@@ -9608,46 +9601,46 @@
         <v>0</v>
       </c>
       <c r="AQ76" s="3"/>
-      <c r="AR76" s="45">
+      <c r="AR76" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:44" ht="14.25">
-      <c r="A77" s="16" t="s">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="15">
         <v>390477</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
       <c r="J77" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
       <c r="N77" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O77" s="25"/>
+      <c r="O77" s="23"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="2">
@@ -9670,12 +9663,12 @@
       </c>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
-      <c r="AC77" s="10"/>
+      <c r="AC77" s="9"/>
       <c r="AD77" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE77" s="10"/>
+      <c r="AE77" s="9"/>
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
       <c r="AH77" s="2">
@@ -9697,42 +9690,42 @@
         <v>0</v>
       </c>
       <c r="AQ77" s="3"/>
-      <c r="AR77" s="45">
+      <c r="AR77" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:44" ht="14.25">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="15">
         <v>390687</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="19"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="18"/>
       <c r="F78" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
       <c r="J78" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
       <c r="N78" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O78" s="25"/>
+      <c r="O78" s="23"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="2">
@@ -9755,12 +9748,12 @@
       </c>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
-      <c r="AC78" s="10"/>
+      <c r="AC78" s="9"/>
       <c r="AD78" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE78" s="10"/>
+      <c r="AE78" s="9"/>
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
       <c r="AH78" s="2">
@@ -9782,42 +9775,42 @@
         <v>0</v>
       </c>
       <c r="AQ78" s="3"/>
-      <c r="AR78" s="45">
+      <c r="AR78" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:44" ht="14.25">
-      <c r="A79" s="16" t="s">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="15">
         <v>390447</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="19"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="18"/>
       <c r="F79" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
       <c r="J79" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
       <c r="N79" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O79" s="25"/>
+      <c r="O79" s="23"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="2">
@@ -9844,12 +9837,12 @@
       </c>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
-      <c r="AC79" s="10"/>
+      <c r="AC79" s="9"/>
       <c r="AD79" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE79" s="10"/>
+      <c r="AE79" s="9"/>
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
       <c r="AH79" s="2">
@@ -9871,42 +9864,42 @@
         <v>0</v>
       </c>
       <c r="AQ79" s="3"/>
-      <c r="AR79" s="45">
+      <c r="AR79" s="38">
         <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:44" ht="14.25">
-      <c r="A80" s="16" t="s">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="15">
         <v>390448</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="19"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="18"/>
       <c r="F80" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G80" s="24"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
       <c r="J80" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
       <c r="N80" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O80" s="25"/>
+      <c r="O80" s="23"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="2">
@@ -9929,12 +9922,12 @@
       </c>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
-      <c r="AC80" s="10"/>
+      <c r="AC80" s="9"/>
       <c r="AD80" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE80" s="10"/>
+      <c r="AE80" s="9"/>
       <c r="AF80" s="3">
         <v>54</v>
       </c>
@@ -9960,42 +9953,42 @@
         <v>0</v>
       </c>
       <c r="AQ80" s="3"/>
-      <c r="AR80" s="45">
+      <c r="AR80" s="38">
         <f t="shared" si="21"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="81" spans="1:44" ht="14.25">
-      <c r="A81" s="16" t="s">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="15">
         <v>390450</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="19"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="18"/>
       <c r="F81" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
       <c r="J81" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
       <c r="N81" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O81" s="25"/>
+      <c r="O81" s="23"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="2">
@@ -10022,12 +10015,12 @@
       </c>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
-      <c r="AC81" s="10"/>
+      <c r="AC81" s="9"/>
       <c r="AD81" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE81" s="10"/>
+      <c r="AE81" s="9"/>
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
       <c r="AH81" s="2">
@@ -10049,42 +10042,42 @@
         <v>0</v>
       </c>
       <c r="AQ81" s="3"/>
-      <c r="AR81" s="45">
+      <c r="AR81" s="38">
         <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:44" ht="14.25">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="15">
         <v>390454</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="19"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="18"/>
       <c r="F82" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
       <c r="J82" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
       <c r="N82" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O82" s="25"/>
+      <c r="O82" s="23"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="2">
@@ -10107,12 +10100,12 @@
       </c>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-      <c r="AC82" s="10"/>
+      <c r="AC82" s="9"/>
       <c r="AD82" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE82" s="10"/>
+      <c r="AE82" s="9"/>
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
       <c r="AH82" s="2">
@@ -10134,42 +10127,42 @@
         <v>0</v>
       </c>
       <c r="AQ82" s="3"/>
-      <c r="AR82" s="45">
+      <c r="AR82" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:44" ht="14.25">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="15">
         <v>390445</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="19"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="18"/>
       <c r="F83" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G83" s="24"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
       <c r="J83" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
       <c r="N83" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O83" s="25"/>
+      <c r="O83" s="23"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="2">
@@ -10192,12 +10185,12 @@
       </c>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
-      <c r="AC83" s="10"/>
+      <c r="AC83" s="9"/>
       <c r="AD83" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE83" s="10"/>
+      <c r="AE83" s="9"/>
       <c r="AF83" s="3">
         <v>54</v>
       </c>
@@ -10221,54 +10214,54 @@
         <v>0</v>
       </c>
       <c r="AQ83" s="3"/>
-      <c r="AR83" s="45">
+      <c r="AR83" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:44" ht="14.25">
-      <c r="A84" s="16" t="s">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="15">
         <v>390609</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="G84" s="24"/>
-      <c r="H84" s="19" t="s">
+      <c r="G84" s="22"/>
+      <c r="H84" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="I84" s="19" t="s">
+      <c r="I84" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19" t="s">
+      <c r="K84" s="18"/>
+      <c r="L84" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="M84" s="19" t="s">
+      <c r="M84" s="18" t="s">
         <v>239</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="O84" s="25"/>
+      <c r="O84" s="23"/>
       <c r="P84" s="3">
         <v>60</v>
       </c>
@@ -10301,14 +10294,14 @@
       <c r="AB84" s="3">
         <v>59</v>
       </c>
-      <c r="AC84" s="10">
+      <c r="AC84" s="9">
         <v>1</v>
       </c>
       <c r="AD84" s="2">
         <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE84" s="10"/>
+      <c r="AE84" s="9"/>
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
       <c r="AH84" s="2">
@@ -10338,42 +10331,42 @@
         <v>1</v>
       </c>
       <c r="AQ84" s="3"/>
-      <c r="AR84" s="45">
+      <c r="AR84" s="38">
         <f t="shared" si="21"/>
         <v>0.98333333333333339</v>
       </c>
     </row>
-    <row r="85" spans="1:44" ht="14.25">
-      <c r="A85" s="16" t="s">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>390607</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="19"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="18"/>
       <c r="F85" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G85" s="24"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
       <c r="J85" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
       <c r="N85" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O85" s="25"/>
+      <c r="O85" s="23"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="2">
@@ -10396,12 +10389,12 @@
       </c>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
-      <c r="AC85" s="10"/>
+      <c r="AC85" s="9"/>
       <c r="AD85" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE85" s="10"/>
+      <c r="AE85" s="9"/>
       <c r="AF85" s="3">
         <v>46</v>
       </c>
@@ -10431,42 +10424,42 @@
         <v>0</v>
       </c>
       <c r="AQ85" s="3"/>
-      <c r="AR85" s="45">
+      <c r="AR85" s="38">
         <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="86" spans="1:44" ht="27">
-      <c r="A86" s="32" t="s">
+    <row r="86" spans="1:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="29">
         <v>390665</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="19"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="18"/>
       <c r="F86" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G86" s="24"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
       <c r="J86" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
       <c r="N86" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O86" s="25"/>
+      <c r="O86" s="23"/>
       <c r="P86" s="3">
         <v>61</v>
       </c>
@@ -10493,12 +10486,12 @@
       </c>
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
-      <c r="AC86" s="10"/>
+      <c r="AC86" s="9"/>
       <c r="AD86" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE86" s="10"/>
+      <c r="AE86" s="9"/>
       <c r="AF86" s="3"/>
       <c r="AG86" s="3"/>
       <c r="AH86" s="2">
@@ -10520,42 +10513,42 @@
         <v>0</v>
       </c>
       <c r="AQ86" s="3"/>
-      <c r="AR86" s="45">
+      <c r="AR86" s="38">
         <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:44" ht="14.25">
-      <c r="A87" s="16" t="s">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>390642</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="19"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="18"/>
       <c r="F87" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
       <c r="J87" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
       <c r="N87" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O87" s="25"/>
+      <c r="O87" s="23"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="2">
@@ -10578,12 +10571,12 @@
       </c>
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
-      <c r="AC87" s="10"/>
+      <c r="AC87" s="9"/>
       <c r="AD87" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE87" s="10"/>
+      <c r="AE87" s="9"/>
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
       <c r="AH87" s="2">
@@ -10605,42 +10598,42 @@
         <v>0</v>
       </c>
       <c r="AQ87" s="3"/>
-      <c r="AR87" s="45">
+      <c r="AR87" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:44" ht="14.25">
-      <c r="A88" s="16" t="s">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="15">
         <v>390425</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="19"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="18"/>
       <c r="F88" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
       <c r="J88" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
       <c r="N88" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O88" s="25"/>
+      <c r="O88" s="23"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="2">
@@ -10663,12 +10656,12 @@
       </c>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
-      <c r="AC88" s="10"/>
+      <c r="AC88" s="9"/>
       <c r="AD88" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE88" s="10"/>
+      <c r="AE88" s="9"/>
       <c r="AF88" s="3"/>
       <c r="AG88" s="3"/>
       <c r="AH88" s="2">
@@ -10690,46 +10683,46 @@
         <v>0</v>
       </c>
       <c r="AQ88" s="3"/>
-      <c r="AR88" s="45">
+      <c r="AR88" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:44" ht="14.25">
-      <c r="A89" s="16" t="s">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="15">
         <v>390605</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="18" t="s">
         <v>186</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G89" s="24"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
       <c r="N89" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O89" s="25"/>
+      <c r="O89" s="23"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="2">
@@ -10762,14 +10755,14 @@
       <c r="AB89" s="3">
         <v>61</v>
       </c>
-      <c r="AC89" s="10">
+      <c r="AC89" s="9">
         <v>1</v>
       </c>
       <c r="AD89" s="2">
         <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE89" s="10"/>
+      <c r="AE89" s="9"/>
       <c r="AF89" s="3">
         <v>51</v>
       </c>
@@ -10799,42 +10792,42 @@
         <v>0</v>
       </c>
       <c r="AQ89" s="3"/>
-      <c r="AR89" s="45">
+      <c r="AR89" s="38">
         <f t="shared" si="21"/>
         <v>0.53333333333333344</v>
       </c>
     </row>
-    <row r="90" spans="1:44" ht="14.25">
-      <c r="A90" s="16" t="s">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="15">
         <v>390572</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="19"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="18"/>
       <c r="F90" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G90" s="24"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
       <c r="J90" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
       <c r="N90" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O90" s="25"/>
+      <c r="O90" s="23"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="2">
@@ -10857,12 +10850,12 @@
       </c>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-      <c r="AC90" s="10"/>
+      <c r="AC90" s="9"/>
       <c r="AD90" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE90" s="10"/>
+      <c r="AE90" s="9"/>
       <c r="AF90" s="3"/>
       <c r="AG90" s="3"/>
       <c r="AH90" s="2">
@@ -10888,46 +10881,46 @@
         <v>0</v>
       </c>
       <c r="AQ90" s="3"/>
-      <c r="AR90" s="45">
+      <c r="AR90" s="38">
         <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:44" ht="14.25">
-      <c r="A91" s="16" t="s">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="15">
         <v>390919</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="19"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="2">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="G91" s="24"/>
-      <c r="H91" s="19" t="s">
+      <c r="G91" s="22"/>
+      <c r="H91" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="I91" s="19" t="s">
+      <c r="I91" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
       <c r="N91" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O91" s="25"/>
+      <c r="O91" s="23"/>
       <c r="P91" s="3" t="s">
         <v>274</v>
       </c>
@@ -10954,12 +10947,12 @@
       </c>
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
-      <c r="AC91" s="10"/>
+      <c r="AC91" s="9"/>
       <c r="AD91" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE91" s="10"/>
+      <c r="AE91" s="9"/>
       <c r="AF91" s="3"/>
       <c r="AG91" s="3"/>
       <c r="AH91" s="2">
@@ -10985,40 +10978,40 @@
         <v>0</v>
       </c>
       <c r="AQ91" s="3"/>
-      <c r="AR91" s="45">
+      <c r="AR91" s="38">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:44" ht="14.25">
-      <c r="A92" s="35" t="s">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36" t="s">
+      <c r="B92" s="32"/>
+      <c r="C92" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="19"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="18"/>
       <c r="F92" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G92" s="24"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
       <c r="J92" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
       <c r="N92" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O92" s="25"/>
+      <c r="O92" s="23"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="2">
@@ -11047,14 +11040,14 @@
       <c r="AB92" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AC92" s="10">
+      <c r="AC92" s="9">
         <v>10</v>
       </c>
       <c r="AD92" s="2">
         <f t="shared" si="17"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="AE92" s="10"/>
+      <c r="AE92" s="9"/>
       <c r="AF92" s="3" t="s">
         <v>18</v>
       </c>
@@ -11080,42 +11073,42 @@
         <v>0</v>
       </c>
       <c r="AQ92" s="3"/>
-      <c r="AR92" s="45">
+      <c r="AR92" s="38">
         <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="93" spans="1:44" ht="14.25">
-      <c r="A93" s="34" t="s">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A93" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="30">
         <v>390925</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="19"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="18"/>
       <c r="F93" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G93" s="24"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
       <c r="J93" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
       <c r="N93" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O93" s="25"/>
+      <c r="O93" s="23"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="2">
@@ -11142,12 +11135,12 @@
       </c>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
-      <c r="AC93" s="10"/>
+      <c r="AC93" s="9"/>
       <c r="AD93" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE93" s="10"/>
+      <c r="AE93" s="9"/>
       <c r="AF93" s="3"/>
       <c r="AG93" s="3"/>
       <c r="AH93" s="2">
@@ -11169,48 +11162,48 @@
         <v>0</v>
       </c>
       <c r="AQ93" s="3"/>
-      <c r="AR93" s="45">
+      <c r="AR93" s="38">
         <f t="shared" si="21"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="94" spans="1:44" ht="14.25">
-      <c r="A94" s="16" t="s">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="15">
         <v>390896</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E94" s="24"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G94" s="24"/>
-      <c r="H94" s="19" t="s">
+      <c r="G94" s="22"/>
+      <c r="H94" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="I94" s="19"/>
+      <c r="I94" s="18"/>
       <c r="J94" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19" t="s">
+      <c r="K94" s="18"/>
+      <c r="L94" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="M94" s="19"/>
+      <c r="M94" s="18"/>
       <c r="N94" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O94" s="25"/>
+      <c r="O94" s="23"/>
       <c r="P94" s="3">
         <v>71</v>
       </c>
@@ -11239,12 +11232,12 @@
       <c r="AB94" s="3">
         <v>76</v>
       </c>
-      <c r="AC94" s="10"/>
+      <c r="AC94" s="9"/>
       <c r="AD94" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE94" s="10"/>
+      <c r="AE94" s="9"/>
       <c r="AF94" s="3">
         <v>66</v>
       </c>
@@ -11272,42 +11265,42 @@
         <v>0</v>
       </c>
       <c r="AQ94" s="3"/>
-      <c r="AR94" s="45">
+      <c r="AR94" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:44" ht="14.25">
-      <c r="A95" s="16" t="s">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="15">
         <v>390894</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G95" s="24"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
       <c r="J95" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
       <c r="N95" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O95" s="25"/>
+      <c r="O95" s="23"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="2">
@@ -11332,12 +11325,12 @@
       </c>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-      <c r="AC95" s="10"/>
+      <c r="AC95" s="9"/>
       <c r="AD95" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE95" s="10"/>
+      <c r="AE95" s="9"/>
       <c r="AF95" s="3"/>
       <c r="AG95" s="3"/>
       <c r="AH95" s="2">
@@ -11359,46 +11352,46 @@
         <v>0</v>
       </c>
       <c r="AQ95" s="3"/>
-      <c r="AR95" s="45">
+      <c r="AR95" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:44" ht="14.25">
-      <c r="A96" s="16" t="s">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="15">
         <v>390890</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E96" s="24"/>
+      <c r="E96" s="22"/>
       <c r="F96" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G96" s="24"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
       <c r="J96" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19" t="s">
+      <c r="K96" s="18"/>
+      <c r="L96" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="M96" s="19"/>
+      <c r="M96" s="18"/>
       <c r="N96" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O96" s="25"/>
+      <c r="O96" s="23"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="2">
@@ -11423,12 +11416,12 @@
       </c>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
-      <c r="AC96" s="10"/>
+      <c r="AC96" s="9"/>
       <c r="AD96" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE96" s="10"/>
+      <c r="AE96" s="9"/>
       <c r="AF96" s="3"/>
       <c r="AG96" s="3"/>
       <c r="AH96" s="2">
@@ -11452,42 +11445,42 @@
         <v>0</v>
       </c>
       <c r="AQ96" s="3"/>
-      <c r="AR96" s="45">
+      <c r="AR96" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:44" ht="14.25">
-      <c r="A97" s="16" t="s">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>390907</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G97" s="24"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
       <c r="J97" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
       <c r="N97" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O97" s="25"/>
+      <c r="O97" s="23"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="2">
@@ -11510,12 +11503,12 @@
       </c>
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
-      <c r="AC97" s="10"/>
+      <c r="AC97" s="9"/>
       <c r="AD97" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE97" s="10"/>
+      <c r="AE97" s="9"/>
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
       <c r="AH97" s="2">
@@ -11537,54 +11530,54 @@
         <v>0</v>
       </c>
       <c r="AQ97" s="3"/>
-      <c r="AR97" s="45">
+      <c r="AR97" s="38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:44" ht="14.25">
-      <c r="A98" s="16" t="s">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="15">
         <v>390903</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="22" t="s">
         <v>191</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="G98" s="24"/>
-      <c r="H98" s="19" t="s">
+      <c r="G98" s="22"/>
+      <c r="H98" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="I98" s="19" t="s">
+      <c r="I98" s="18" t="s">
         <v>197</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19" t="s">
+      <c r="K98" s="18"/>
+      <c r="L98" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="M98" s="19" t="s">
+      <c r="M98" s="18" t="s">
         <v>257</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="O98" s="25"/>
+      <c r="O98" s="23"/>
       <c r="P98" s="3">
         <v>71</v>
       </c>
@@ -11617,14 +11610,14 @@
       <c r="AB98" s="3">
         <v>76</v>
       </c>
-      <c r="AC98" s="10">
+      <c r="AC98" s="9">
         <v>15</v>
       </c>
       <c r="AD98" s="2">
         <f t="shared" si="17"/>
         <v>12.5</v>
       </c>
-      <c r="AE98" s="10"/>
+      <c r="AE98" s="9"/>
       <c r="AF98" s="3">
         <v>66</v>
       </c>
@@ -11658,12 +11651,12 @@
         <v>10</v>
       </c>
       <c r="AQ98" s="3"/>
-      <c r="AR98" s="45">
+      <c r="AR98" s="38">
         <f t="shared" si="21"/>
         <v>11.416666666666666</v>
       </c>
     </row>
-    <row r="99" spans="1:44" ht="14.25">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>49</v>
       </c>
@@ -11673,35 +11666,35 @@
       <c r="C99" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="22" t="s">
         <v>191</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G99" s="24"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
       <c r="J99" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19" t="s">
+      <c r="K99" s="18"/>
+      <c r="L99" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="M99" s="19" t="s">
+      <c r="M99" s="18" t="s">
         <v>258</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="13"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="O99" s="25"/>
+      <c r="O99" s="23"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="2">
@@ -11732,12 +11725,12 @@
       </c>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
-      <c r="AC99" s="10"/>
+      <c r="AC99" s="9"/>
       <c r="AD99" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE99" s="10"/>
+      <c r="AE99" s="9"/>
       <c r="AF99" s="3"/>
       <c r="AG99" s="3"/>
       <c r="AH99" s="2">
@@ -11763,1060 +11756,10 @@
         <v>16.666666666666664</v>
       </c>
       <c r="AQ99" s="3"/>
-      <c r="AR99" s="45">
+      <c r="AR99" s="38">
         <f t="shared" si="21"/>
         <v>6.6666666666666661</v>
       </c>
-    </row>
-    <row r="100" spans="1:44">
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="43"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="29"/>
-      <c r="V100" s="43"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="29"/>
-      <c r="Y100" s="29"/>
-      <c r="Z100" s="43"/>
-      <c r="AA100" s="29"/>
-      <c r="AB100" s="29"/>
-      <c r="AC100" s="30"/>
-      <c r="AD100" s="44"/>
-      <c r="AE100" s="30"/>
-    </row>
-    <row r="101" spans="1:44">
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="23"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="23"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="43"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="43"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="29"/>
-      <c r="Y101" s="29"/>
-      <c r="Z101" s="43"/>
-      <c r="AA101" s="29"/>
-      <c r="AB101" s="29"/>
-      <c r="AC101" s="30"/>
-      <c r="AD101" s="44"/>
-      <c r="AE101" s="30"/>
-    </row>
-    <row r="102" spans="1:44">
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="39"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="39"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="29"/>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="43"/>
-      <c r="S102" s="29"/>
-      <c r="T102" s="29"/>
-      <c r="U102" s="29"/>
-      <c r="V102" s="43"/>
-      <c r="W102" s="29"/>
-      <c r="X102" s="29"/>
-      <c r="Y102" s="29"/>
-      <c r="Z102" s="43"/>
-      <c r="AA102" s="29"/>
-      <c r="AB102" s="29"/>
-      <c r="AC102" s="30"/>
-      <c r="AD102" s="44"/>
-      <c r="AE102" s="30"/>
-    </row>
-    <row r="103" spans="1:44">
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="39"/>
-      <c r="O103" s="23"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="43"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="43"/>
-      <c r="W103" s="29"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="43"/>
-      <c r="AA103" s="29"/>
-      <c r="AB103" s="29"/>
-      <c r="AC103" s="30"/>
-      <c r="AD103" s="44"/>
-      <c r="AE103" s="30"/>
-    </row>
-    <row r="104" spans="1:44">
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="23"/>
-      <c r="N104" s="39"/>
-      <c r="O104" s="23"/>
-      <c r="P104" s="29"/>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="43"/>
-      <c r="S104" s="29"/>
-      <c r="T104" s="29"/>
-      <c r="U104" s="29"/>
-      <c r="V104" s="43"/>
-      <c r="W104" s="29"/>
-      <c r="X104" s="29"/>
-      <c r="Y104" s="29"/>
-      <c r="Z104" s="43"/>
-      <c r="AA104" s="29"/>
-      <c r="AB104" s="29"/>
-      <c r="AC104" s="30"/>
-      <c r="AD104" s="44"/>
-      <c r="AE104" s="30"/>
-    </row>
-    <row r="105" spans="1:44">
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23"/>
-      <c r="M105" s="23"/>
-      <c r="N105" s="39"/>
-      <c r="O105" s="23"/>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="43"/>
-      <c r="S105" s="29"/>
-      <c r="T105" s="29"/>
-      <c r="U105" s="29"/>
-      <c r="V105" s="43"/>
-      <c r="W105" s="29"/>
-      <c r="X105" s="29"/>
-      <c r="Y105" s="29"/>
-      <c r="Z105" s="43"/>
-      <c r="AA105" s="29"/>
-      <c r="AB105" s="29"/>
-      <c r="AC105" s="30"/>
-      <c r="AD105" s="44"/>
-      <c r="AE105" s="30"/>
-    </row>
-    <row r="106" spans="1:44">
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="23"/>
-      <c r="M106" s="23"/>
-      <c r="N106" s="39"/>
-      <c r="O106" s="23"/>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="43"/>
-      <c r="S106" s="29"/>
-      <c r="T106" s="29"/>
-      <c r="U106" s="29"/>
-      <c r="V106" s="43"/>
-      <c r="W106" s="29"/>
-      <c r="X106" s="29"/>
-      <c r="Y106" s="29"/>
-      <c r="Z106" s="43"/>
-      <c r="AA106" s="29"/>
-      <c r="AB106" s="29"/>
-      <c r="AC106" s="30"/>
-      <c r="AD106" s="44"/>
-      <c r="AE106" s="30"/>
-    </row>
-    <row r="107" spans="1:44">
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="39"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
-      <c r="M107" s="23"/>
-      <c r="N107" s="39"/>
-      <c r="O107" s="23"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="43"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="29"/>
-      <c r="V107" s="43"/>
-      <c r="W107" s="29"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="43"/>
-      <c r="AA107" s="29"/>
-      <c r="AB107" s="29"/>
-      <c r="AC107" s="30"/>
-      <c r="AD107" s="44"/>
-      <c r="AE107" s="30"/>
-    </row>
-    <row r="108" spans="1:44">
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="39"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="39"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="43"/>
-      <c r="S108" s="29"/>
-      <c r="T108" s="29"/>
-      <c r="U108" s="29"/>
-      <c r="V108" s="43"/>
-      <c r="W108" s="29"/>
-      <c r="X108" s="29"/>
-      <c r="Y108" s="29"/>
-      <c r="Z108" s="43"/>
-      <c r="AA108" s="29"/>
-      <c r="AB108" s="29"/>
-      <c r="AC108" s="30"/>
-      <c r="AD108" s="44"/>
-      <c r="AE108" s="30"/>
-    </row>
-    <row r="109" spans="1:44">
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="23"/>
-      <c r="M109" s="23"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="23"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="43"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="29"/>
-      <c r="V109" s="43"/>
-      <c r="W109" s="29"/>
-      <c r="X109" s="29"/>
-      <c r="Y109" s="29"/>
-      <c r="Z109" s="43"/>
-      <c r="AA109" s="29"/>
-      <c r="AB109" s="29"/>
-      <c r="AC109" s="30"/>
-      <c r="AD109" s="44"/>
-      <c r="AE109" s="30"/>
-    </row>
-    <row r="110" spans="1:44">
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="39"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="39"/>
-      <c r="O110" s="23"/>
-      <c r="P110" s="29"/>
-      <c r="Q110" s="29"/>
-      <c r="R110" s="43"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="29"/>
-      <c r="U110" s="29"/>
-      <c r="V110" s="43"/>
-      <c r="W110" s="29"/>
-      <c r="X110" s="29"/>
-      <c r="Y110" s="29"/>
-      <c r="Z110" s="43"/>
-      <c r="AA110" s="29"/>
-      <c r="AB110" s="29"/>
-      <c r="AC110" s="30"/>
-      <c r="AD110" s="44"/>
-      <c r="AE110" s="30"/>
-    </row>
-    <row r="111" spans="1:44">
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
-      <c r="M111" s="23"/>
-      <c r="N111" s="39"/>
-      <c r="O111" s="23"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="39"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="39"/>
-      <c r="W111" s="9"/>
-      <c r="X111" s="9"/>
-      <c r="Y111" s="9"/>
-      <c r="Z111" s="39"/>
-      <c r="AA111" s="9"/>
-      <c r="AB111" s="30"/>
-      <c r="AC111" s="30"/>
-      <c r="AD111" s="44"/>
-      <c r="AE111" s="30"/>
-    </row>
-    <row r="112" spans="1:44">
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="39"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
-      <c r="M112" s="23"/>
-      <c r="N112" s="39"/>
-      <c r="O112" s="23"/>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="39"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="39"/>
-      <c r="W112" s="9"/>
-      <c r="X112" s="9"/>
-      <c r="Y112" s="9"/>
-      <c r="Z112" s="39"/>
-      <c r="AA112" s="9"/>
-      <c r="AB112" s="9"/>
-      <c r="AC112" s="9"/>
-      <c r="AD112" s="39"/>
-      <c r="AE112" s="9"/>
-    </row>
-    <row r="113" spans="4:31">
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="39"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="23"/>
-      <c r="N113" s="39"/>
-      <c r="O113" s="23"/>
-      <c r="P113" s="9"/>
-      <c r="Q113" s="9"/>
-      <c r="R113" s="39"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
-      <c r="U113" s="9"/>
-      <c r="V113" s="39"/>
-      <c r="W113" s="9"/>
-      <c r="X113" s="9"/>
-      <c r="Y113" s="9"/>
-      <c r="Z113" s="39"/>
-      <c r="AA113" s="9"/>
-      <c r="AB113" s="9"/>
-      <c r="AC113" s="9"/>
-      <c r="AD113" s="39"/>
-      <c r="AE113" s="9"/>
-    </row>
-    <row r="114" spans="4:31">
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="39"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="39"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="39"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="39"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
-      <c r="Z114" s="39"/>
-      <c r="AA114" s="9"/>
-      <c r="AB114" s="9"/>
-      <c r="AC114" s="9"/>
-      <c r="AD114" s="39"/>
-      <c r="AE114" s="9"/>
-    </row>
-    <row r="115" spans="4:31">
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="39"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="23"/>
-      <c r="M115" s="23"/>
-      <c r="N115" s="39"/>
-      <c r="O115" s="23"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="39"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
-      <c r="U115" s="9"/>
-      <c r="V115" s="39"/>
-      <c r="W115" s="9"/>
-      <c r="X115" s="9"/>
-      <c r="Y115" s="9"/>
-      <c r="Z115" s="39"/>
-      <c r="AA115" s="9"/>
-      <c r="AB115" s="9"/>
-      <c r="AC115" s="9"/>
-      <c r="AD115" s="39"/>
-      <c r="AE115" s="9"/>
-    </row>
-    <row r="116" spans="4:31">
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="39"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="39"/>
-      <c r="O116" s="9"/>
-      <c r="P116" s="9"/>
-      <c r="Q116" s="9"/>
-      <c r="R116" s="39"/>
-      <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
-      <c r="U116" s="9"/>
-      <c r="V116" s="39"/>
-      <c r="W116" s="9"/>
-      <c r="X116" s="9"/>
-      <c r="Y116" s="9"/>
-      <c r="Z116" s="39"/>
-      <c r="AA116" s="9"/>
-      <c r="AB116" s="9"/>
-      <c r="AC116" s="9"/>
-      <c r="AD116" s="39"/>
-      <c r="AE116" s="9"/>
-    </row>
-    <row r="117" spans="4:31">
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
-      <c r="N117" s="39"/>
-      <c r="O117" s="9"/>
-      <c r="P117" s="9"/>
-      <c r="Q117" s="9"/>
-      <c r="R117" s="39"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-      <c r="U117" s="9"/>
-      <c r="V117" s="39"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="9"/>
-      <c r="Y117" s="9"/>
-      <c r="Z117" s="39"/>
-      <c r="AA117" s="9"/>
-      <c r="AB117" s="9"/>
-      <c r="AC117" s="9"/>
-      <c r="AD117" s="39"/>
-      <c r="AE117" s="9"/>
-    </row>
-    <row r="118" spans="4:31">
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="39"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="39"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="U118" s="9"/>
-      <c r="V118" s="39"/>
-      <c r="W118" s="9"/>
-      <c r="X118" s="9"/>
-      <c r="Y118" s="9"/>
-      <c r="Z118" s="39"/>
-      <c r="AA118" s="9"/>
-      <c r="AB118" s="9"/>
-      <c r="AC118" s="9"/>
-      <c r="AD118" s="39"/>
-      <c r="AE118" s="9"/>
-    </row>
-    <row r="119" spans="4:31">
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="39"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="39"/>
-      <c r="O119" s="9"/>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="9"/>
-      <c r="R119" s="39"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
-      <c r="U119" s="9"/>
-      <c r="V119" s="39"/>
-      <c r="W119" s="9"/>
-      <c r="X119" s="9"/>
-      <c r="Y119" s="9"/>
-      <c r="Z119" s="39"/>
-      <c r="AA119" s="9"/>
-      <c r="AB119" s="9"/>
-      <c r="AC119" s="9"/>
-      <c r="AD119" s="39"/>
-      <c r="AE119" s="9"/>
-    </row>
-    <row r="120" spans="4:31">
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="39"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="39"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="39"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="39"/>
-      <c r="W120" s="9"/>
-      <c r="X120" s="9"/>
-      <c r="Y120" s="9"/>
-      <c r="Z120" s="39"/>
-      <c r="AA120" s="9"/>
-      <c r="AB120" s="9"/>
-      <c r="AC120" s="9"/>
-      <c r="AD120" s="39"/>
-      <c r="AE120" s="9"/>
-    </row>
-    <row r="121" spans="4:31">
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="39"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="39"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="39"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-      <c r="U121" s="9"/>
-      <c r="V121" s="39"/>
-      <c r="W121" s="9"/>
-      <c r="X121" s="9"/>
-      <c r="Y121" s="9"/>
-      <c r="Z121" s="39"/>
-      <c r="AA121" s="9"/>
-      <c r="AB121" s="9"/>
-      <c r="AC121" s="9"/>
-      <c r="AD121" s="39"/>
-      <c r="AE121" s="9"/>
-    </row>
-    <row r="122" spans="4:31">
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="39"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="39"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="39"/>
-      <c r="W122" s="9"/>
-      <c r="X122" s="9"/>
-      <c r="Y122" s="9"/>
-      <c r="Z122" s="39"/>
-      <c r="AA122" s="9"/>
-      <c r="AB122" s="9"/>
-      <c r="AC122" s="9"/>
-      <c r="AD122" s="39"/>
-      <c r="AE122" s="9"/>
-    </row>
-    <row r="123" spans="4:31">
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="39"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="39"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="39"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="9"/>
-      <c r="V123" s="39"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
-      <c r="Z123" s="39"/>
-      <c r="AA123" s="9"/>
-      <c r="AB123" s="9"/>
-      <c r="AC123" s="9"/>
-      <c r="AD123" s="39"/>
-      <c r="AE123" s="9"/>
-    </row>
-    <row r="124" spans="4:31">
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="39"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="39"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="39"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
-      <c r="U124" s="9"/>
-      <c r="V124" s="39"/>
-      <c r="W124" s="9"/>
-      <c r="X124" s="9"/>
-      <c r="Y124" s="9"/>
-      <c r="Z124" s="39"/>
-      <c r="AA124" s="9"/>
-      <c r="AB124" s="9"/>
-      <c r="AC124" s="9"/>
-      <c r="AD124" s="39"/>
-      <c r="AE124" s="9"/>
-    </row>
-    <row r="125" spans="4:31">
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="39"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="39"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="39"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
-      <c r="V125" s="39"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
-      <c r="Z125" s="39"/>
-      <c r="AA125" s="9"/>
-      <c r="AB125" s="9"/>
-      <c r="AC125" s="9"/>
-      <c r="AD125" s="39"/>
-      <c r="AE125" s="9"/>
-    </row>
-    <row r="126" spans="4:31">
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="39"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="39"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="39"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
-      <c r="U126" s="9"/>
-      <c r="V126" s="39"/>
-      <c r="W126" s="9"/>
-      <c r="X126" s="9"/>
-      <c r="Y126" s="9"/>
-      <c r="Z126" s="39"/>
-      <c r="AA126" s="9"/>
-      <c r="AB126" s="9"/>
-      <c r="AC126" s="9"/>
-      <c r="AD126" s="39"/>
-      <c r="AE126" s="9"/>
-    </row>
-    <row r="127" spans="4:31">
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="39"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="39"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
-      <c r="R127" s="39"/>
-      <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
-      <c r="U127" s="9"/>
-      <c r="V127" s="39"/>
-      <c r="W127" s="9"/>
-      <c r="X127" s="9"/>
-      <c r="Y127" s="9"/>
-      <c r="Z127" s="39"/>
-      <c r="AA127" s="9"/>
-      <c r="AB127" s="9"/>
-      <c r="AC127" s="9"/>
-      <c r="AD127" s="39"/>
-      <c r="AE127" s="9"/>
-    </row>
-    <row r="128" spans="4:31">
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="39"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
-      <c r="N128" s="39"/>
-      <c r="O128" s="9"/>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="9"/>
-      <c r="R128" s="39"/>
-      <c r="S128" s="9"/>
-      <c r="T128" s="9"/>
-      <c r="U128" s="9"/>
-      <c r="V128" s="39"/>
-      <c r="W128" s="9"/>
-      <c r="X128" s="9"/>
-      <c r="Y128" s="9"/>
-      <c r="Z128" s="39"/>
-      <c r="AA128" s="9"/>
-      <c r="AB128" s="9"/>
-      <c r="AC128" s="9"/>
-      <c r="AD128" s="39"/>
-      <c r="AE128" s="9"/>
-    </row>
-    <row r="129" spans="4:31">
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="39"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="39"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
-      <c r="R129" s="39"/>
-      <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="9"/>
-      <c r="V129" s="39"/>
-      <c r="W129" s="9"/>
-      <c r="X129" s="9"/>
-      <c r="Y129" s="9"/>
-      <c r="Z129" s="39"/>
-      <c r="AA129" s="9"/>
-      <c r="AB129" s="9"/>
-      <c r="AC129" s="9"/>
-      <c r="AD129" s="39"/>
-      <c r="AE129" s="9"/>
-    </row>
-    <row r="130" spans="4:31">
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="39"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="39"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="39"/>
-      <c r="S130" s="9"/>
-      <c r="T130" s="9"/>
-      <c r="U130" s="9"/>
-      <c r="V130" s="39"/>
-      <c r="W130" s="9"/>
-      <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
-      <c r="Z130" s="39"/>
-      <c r="AA130" s="9"/>
-      <c r="AB130" s="9"/>
-      <c r="AC130" s="9"/>
-      <c r="AD130" s="39"/>
-      <c r="AE130" s="9"/>
-    </row>
-    <row r="131" spans="4:31">
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="39"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="39"/>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="39"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
-      <c r="Z131" s="39"/>
-      <c r="AA131" s="9"/>
-      <c r="AB131" s="9"/>
-      <c r="AC131" s="9"/>
-      <c r="AD131" s="39"/>
-      <c r="AE131" s="9"/>
-    </row>
-    <row r="132" spans="4:31">
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="39"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="39"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="39"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
-      <c r="Z132" s="39"/>
-      <c r="AA132" s="9"/>
-      <c r="AB132" s="9"/>
-      <c r="AC132" s="9"/>
-      <c r="AD132" s="39"/>
-      <c r="AE132" s="9"/>
-    </row>
-    <row r="133" spans="4:31">
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="39"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="39"/>
-      <c r="S133" s="9"/>
-      <c r="T133" s="9"/>
-      <c r="U133" s="9"/>
-      <c r="V133" s="39"/>
-      <c r="W133" s="9"/>
-      <c r="X133" s="9"/>
-      <c r="Y133" s="9"/>
-      <c r="Z133" s="39"/>
-      <c r="AA133" s="9"/>
-      <c r="AB133" s="9"/>
-      <c r="AC133" s="9"/>
-      <c r="AD133" s="39"/>
-      <c r="AE133" s="9"/>
-    </row>
-    <row r="134" spans="4:31">
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="39"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="39"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="39"/>
-      <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="9"/>
-      <c r="V134" s="39"/>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="9"/>
-      <c r="Z134" s="39"/>
-      <c r="AA134" s="9"/>
-      <c r="AB134" s="9"/>
-      <c r="AC134" s="9"/>
-      <c r="AD134" s="39"/>
-      <c r="AE134" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
